--- a/xlsx/中文维基百科_intext.xlsx
+++ b/xlsx/中文维基百科_intext.xlsx
@@ -15,837 +15,828 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="836">
   <si>
     <t>中文维基百科</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>网络百科全书</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_中文维基百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%9F%BA%E9%87%91%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>维基媒体基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>创业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>吉米·威尔士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%87%8C%C2%B7%E6%A1%91%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>拉里·桑格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>标语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>维基百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E5%90%8C%E5%AF%AB%E4%BD%9C</t>
+  </si>
+  <si>
+    <t>协同写作</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%A9%B1%E6%96%87</t>
+  </si>
+  <si>
+    <t>白话文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E5%BC%8F%E6%9B%B8%E5%AF%AB</t>
+  </si>
+  <si>
+    <t>横式书写</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%9B%88%E5%88%A9%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>非盈利组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E8%B0%83%E4%B8%96%E7%95%8C%E6%97%B6</t>
+  </si>
+  <si>
+    <t>协调世界时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%80%E5%8C%96%E5%AD%97</t>
+  </si>
+  <si>
+    <t>简化字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E4%BD%93%E4%B8%AD%E6%96%87</t>
+  </si>
+  <si>
+    <t>繁体中文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E8%AF%9D</t>
+  </si>
+  <si>
+    <t>官话</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD%E6%8B%BC%E9%9F%B3</t>
+  </si>
+  <si>
+    <t>汉语拼音</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%A6%A5%E7%91%AA%E6%8B%BC%E9%9F%B3</t>
+  </si>
+  <si>
+    <t>威妥玛拼音</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E9%9F%B3%E6%A0%87</t>
+  </si>
+  <si>
+    <t>国际音标</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E8%AA%9E%E7%BE%85%E9%A6%AC%E5%AD%97</t>
+  </si>
+  <si>
+    <t>国语罗马字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E9%9F%B3%E7%AC%A6%E8%99%9F</t>
+  </si>
+  <si>
+    <t>注音符号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%BD%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>闽语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%BD%E5%8D%97%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>闽南语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%AF%9D%E5%AD%97</t>
+  </si>
+  <si>
+    <t>白话字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%BE%85%E6%8B%BC%E9%9F%B3</t>
+  </si>
+  <si>
+    <t>台罗拼音</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>吴语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B2%A4%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>粤语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E6%8B%BC</t>
+  </si>
+  <si>
+    <t>粤拼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E5%AE%B6%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>客家语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%AA%9E%E7%99%BD%E8%A9%B1%E5%AD%97</t>
+  </si>
+  <si>
+    <t>客语白话字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Ubuntu</t>
+  </si>
+  <si>
+    <t>Ubuntu</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Firefox</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wiki</t>
+  </si>
+  <si>
+    <t>Wiki</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>百科全书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E6%88%90%E8%A9%9E</t>
+  </si>
+  <si>
+    <t>混成词</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA</t>
+  </si>
+  <si>
+    <t>维基</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%AF%91</t>
+  </si>
+  <si>
+    <t>音译</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B9%A9</t>
+  </si>
+  <si>
+    <t>绳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%91</t>
+  </si>
+  <si>
+    <t>网</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
+  </si>
+  <si>
+    <t>互联网</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E7%89%A9</t>
+  </si>
+  <si>
+    <t>建筑物</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86</t>
+  </si>
+  <si>
+    <t>知识</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%88%99%E5%BE%90</t>
+  </si>
+  <si>
+    <t>林则徐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E8%81%94</t>
+  </si>
+  <si>
+    <t>对联</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E5%AD%90_(%E6%9B%B8%E7%B1%8D)</t>
+  </si>
+  <si>
+    <t>管子 (书籍)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>海洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%B5%81</t>
+  </si>
+  <si>
+    <t>河流</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>尚书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E5%85%B8</t>
+  </si>
+  <si>
+    <t>字典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%8D%E5%85%B8</t>
+  </si>
+  <si>
+    <t>词典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%BA%E5%9D%9B</t>
+  </si>
+  <si>
+    <t>论坛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>民主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>精英主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
+  </si>
+  <si>
+    <t>独裁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97</t>
+  </si>
+  <si>
+    <t>汉字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E6%97%8F</t>
+  </si>
+  <si>
+    <t>汉族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>华人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%97</t>
+  </si>
+  <si>
+    <t>文字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
+  </si>
+  <si>
+    <t>中国大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>台湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>马来西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%97%A8</t>
+  </si>
+  <si>
+    <t>澳门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
+  </si>
+  <si>
+    <t>官方文字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E6%A0%87%E5%87%86%E6%B1%89%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>现代标准汉语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A8%80</t>
+  </si>
+  <si>
+    <t>方言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%A8%80%E6%96%87</t>
+  </si>
+  <si>
+    <t>文言文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
+  </si>
+  <si>
+    <t>荷兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>中华文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>中国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>英文维基百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>维基百科历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>日语维基百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%AD%97%E6%AF%8D</t>
+  </si>
+  <si>
+    <t>拉丁字母</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>日语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/User:Mountain</t>
+  </si>
+  <si>
+    <t>User-Mountain</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>计算机科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%94%B5%E8%84%91%E6%95%99%E8%82%B2%E6%8A%A5</t>
+  </si>
+  <si>
+    <t>中国电脑教育报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%91%A8%E5%88%8A</t>
+  </si>
+  <si>
+    <t>新周刊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%99%82%E6%99%9A%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>中时晚报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>联合报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>明报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E5%88%8A</t>
+  </si>
+  <si>
+    <t>副刊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E6%A2%9D%E6%97%A5%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>头条日报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA%E5%B9%B4%E6%9C%83</t>
+  </si>
+  <si>
+    <t>中文维基年会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E7%90%83%E6%97%B6%E6%8A%A5</t>
+  </si>
+  <si>
+    <t>环球时报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>青年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E6%97%B6%E6%8A%A5</t>
+  </si>
+  <si>
+    <t>纽约时报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/User:Ktsquare</t>
+  </si>
+  <si>
+    <t>User-Ktsquare</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%BA%A6%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>百度百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E5%8A%A8%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>互动百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86%E5%B0%81%E9%94%81%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>中国大陆封锁维基百科事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>中华人民共和国政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%BD%91%E7%BB%9C%E5%AE%A1%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>中华人民共和国网络审查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%85%B1%E4%BA%A7%E5%85%9A</t>
+  </si>
+  <si>
+    <t>中国共产党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%83%85</t>
+  </si>
+  <si>
+    <t>色情</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>2008年夏季奥林匹克运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/GFW</t>
+  </si>
+  <si>
+    <t>GFW</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E9%AB%94%E4%B8%AD%E6%96%87</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%80%E4%BD%93%E4%B8%AD%E6%96%87</t>
+  </si>
+  <si>
+    <t>简体中文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%A2%BC%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>数码电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
+  </si>
+  <si>
+    <t>维基媒体国际会议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%8B%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>台湾国语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%94%A8%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>香港用语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E4%B8%BD%E8%8E%8E%E7%99%BD%E4%B8%80%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E5%85%B0)</t>
+  </si>
+  <si>
+    <t>伊丽莎白一世 (英格兰)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%86%E5%95%A6A%E6%A2%A6</t>
+  </si>
+  <si>
+    <t>哆啦A梦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E8%B1%A1%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>气象学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E6%9A%B4</t>
+  </si>
+  <si>
+    <t>风暴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E7%AF%80%E7%9B%AE</t>
+  </si>
+  <si>
+    <t>电视节目</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AA%92%E9%AB%94</t>
+  </si>
+  <si>
+    <t>传播媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%B6%AD%E5%9F%BA</t>
+  </si>
+  <si>
+    <t>元维基</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E4%B8%9C%E7%9C%81</t>
+  </si>
+  <si>
+    <t>广东省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%B8%AD%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>华中地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/User:Shizhao</t>
+  </si>
+  <si>
+    <t>User-Shizhao</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B5%AA%E5%BE%AE%E5%8D%9A</t>
+  </si>
+  <si>
+    <t>新浪微博</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%86%E7%93%A3</t>
+  </si>
+  <si>
+    <t>豆瓣</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BA%BA%E7%BD%91</t>
+  </si>
+  <si>
+    <t>人人网</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E5%A3%B3%E7%BD%91</t>
+  </si>
+  <si>
+    <t>果壳网</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Yahoo!%E7%9F%A5%E8%AD%98%2B</t>
+  </si>
+  <si>
+    <t>Yahoo!知识+</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BC%AB%E7%95%AB</t>
+  </si>
+  <si>
+    <t>漫画</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%95%AB</t>
+  </si>
+  <si>
+    <t>动画</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%81%8A%E6%88%B2</t>
+  </si>
+  <si>
+    <t>电子游戏</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>次文化</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>网络百科全书</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_中文维基百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%9F%BA%E9%87%91%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>维基媒体基金会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>創業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>吉米·威爾士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%87%8C%C2%B7%E6%A1%91%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>拉里·桑格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>標語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>维基百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E5%90%8C%E5%AF%AB%E4%BD%9C</t>
-  </si>
-  <si>
-    <t>協同寫作</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87</t>
-  </si>
-  <si>
-    <t>中文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%A9%B1%E6%96%87</t>
-  </si>
-  <si>
-    <t>白話文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E5%BC%8F%E6%9B%B8%E5%AF%AB</t>
-  </si>
-  <si>
-    <t>橫式書寫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%9B%88%E5%88%A9%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>非盈利组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E8%B0%83%E4%B8%96%E7%95%8C%E6%97%B6</t>
-  </si>
-  <si>
-    <t>协调世界时</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%80%E5%8C%96%E5%AD%97</t>
-  </si>
-  <si>
-    <t>简化字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E4%BD%93%E4%B8%AD%E6%96%87</t>
-  </si>
-  <si>
-    <t>繁体中文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E8%AF%9D</t>
-  </si>
-  <si>
-    <t>官话</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD%E6%8B%BC%E9%9F%B3</t>
-  </si>
-  <si>
-    <t>汉语拼音</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%A6%A5%E7%91%AA%E6%8B%BC%E9%9F%B3</t>
-  </si>
-  <si>
-    <t>威妥瑪拼音</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E9%9F%B3%E6%A0%87</t>
-  </si>
-  <si>
-    <t>国际音标</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E8%AA%9E%E7%BE%85%E9%A6%AC%E5%AD%97</t>
-  </si>
-  <si>
-    <t>國語羅馬字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E9%9F%B3%E7%AC%A6%E8%99%9F</t>
-  </si>
-  <si>
-    <t>注音符號</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%BD%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>闽语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%BD%E5%8D%97%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>闽南语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%AF%9D%E5%AD%97</t>
-  </si>
-  <si>
-    <t>白话字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%BE%85%E6%8B%BC%E9%9F%B3</t>
-  </si>
-  <si>
-    <t>台羅拼音</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>吴语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B2%A4%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>粤语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E6%8B%BC</t>
-  </si>
-  <si>
-    <t>粵拼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E5%AE%B6%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>客家語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%AA%9E%E7%99%BD%E8%A9%B1%E5%AD%97</t>
-  </si>
-  <si>
-    <t>客語白話字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Ubuntu</t>
-  </si>
-  <si>
-    <t>Ubuntu</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Firefox</t>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wiki</t>
-  </si>
-  <si>
-    <t>Wiki</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>百科全书</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E6%88%90%E8%A9%9E</t>
-  </si>
-  <si>
-    <t>混成詞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA</t>
-  </si>
-  <si>
-    <t>维基</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%AF%91</t>
-  </si>
-  <si>
-    <t>音译</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B9%A9</t>
-  </si>
-  <si>
-    <t>繩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%91</t>
-  </si>
-  <si>
-    <t>网</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
-  </si>
-  <si>
-    <t>互联网</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E7%89%A9</t>
-  </si>
-  <si>
-    <t>建筑物</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86</t>
-  </si>
-  <si>
-    <t>知识</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%88%99%E5%BE%90</t>
-  </si>
-  <si>
-    <t>林则徐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E8%81%94</t>
-  </si>
-  <si>
-    <t>对联</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E5%AD%90_(%E6%9B%B8%E7%B1%8D)</t>
-  </si>
-  <si>
-    <t>管子 (書籍)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>海洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%B5%81</t>
-  </si>
-  <si>
-    <t>河流</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>尚书</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>維基百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E5%85%B8</t>
-  </si>
-  <si>
-    <t>字典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%8D%E5%85%B8</t>
-  </si>
-  <si>
-    <t>词典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%BA%E5%9D%9B</t>
-  </si>
-  <si>
-    <t>论坛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>民主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>精英主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
-  </si>
-  <si>
-    <t>独裁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97</t>
-  </si>
-  <si>
-    <t>汉字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E6%97%8F</t>
-  </si>
-  <si>
-    <t>汉族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>华人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%97</t>
-  </si>
-  <si>
-    <t>文字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
-  </si>
-  <si>
-    <t>中国大陆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>台湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>马来西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%97%A8</t>
-  </si>
-  <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
-  </si>
-  <si>
-    <t>官方文字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E6%A0%87%E5%87%86%E6%B1%89%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>现代标准汉语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A8%80</t>
-  </si>
-  <si>
-    <t>方言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%A8%80%E6%96%87</t>
-  </si>
-  <si>
-    <t>文言文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>中华文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>中国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>英文维基百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>维基百科历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>日語維基百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%AD%97%E6%AF%8D</t>
-  </si>
-  <si>
-    <t>拉丁字母</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>日语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/User:Mountain</t>
-  </si>
-  <si>
-    <t>User-Mountain</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>计算机科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%94%B5%E8%84%91%E6%95%99%E8%82%B2%E6%8A%A5</t>
-  </si>
-  <si>
-    <t>中国电脑教育报</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%91%A8%E5%88%8A</t>
-  </si>
-  <si>
-    <t>新周刊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%99%82%E6%99%9A%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>中時晚報</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>聯合報</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>明報</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E5%88%8A</t>
-  </si>
-  <si>
-    <t>副刊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E6%A2%9D%E6%97%A5%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>頭條日報</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA%E5%B9%B4%E6%9C%83</t>
-  </si>
-  <si>
-    <t>中文維基年會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E7%90%83%E6%97%B6%E6%8A%A5</t>
-  </si>
-  <si>
-    <t>环球时报</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>青年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E6%97%B6%E6%8A%A5</t>
-  </si>
-  <si>
-    <t>纽约时报</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/User:Ktsquare</t>
-  </si>
-  <si>
-    <t>User-Ktsquare</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%BA%A6%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>百度百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E5%8A%A8%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>互动百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86%E5%B0%81%E9%94%81%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>中国大陆封锁维基百科事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>中华人民共和国政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%BD%91%E7%BB%9C%E5%AE%A1%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>中华人民共和国网络审查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%85%B1%E4%BA%A7%E5%85%9A</t>
-  </si>
-  <si>
-    <t>中国共产党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%83%85</t>
-  </si>
-  <si>
-    <t>色情</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>2008年夏季奥林匹克运动会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/GFW</t>
-  </si>
-  <si>
-    <t>GFW</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E9%AB%94%E4%B8%AD%E6%96%87</t>
-  </si>
-  <si>
-    <t>繁體中文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%80%E4%BD%93%E4%B8%AD%E6%96%87</t>
-  </si>
-  <si>
-    <t>简体中文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%A2%BC%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>數碼電視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
-  </si>
-  <si>
-    <t>維基媒體國際會議</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%8B%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>臺灣國語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%94%A8%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>香港用語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
-  </si>
-  <si>
-    <t>澳門</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E4%B8%BD%E8%8E%8E%E7%99%BD%E4%B8%80%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E5%85%B0)</t>
-  </si>
-  <si>
-    <t>伊丽莎白一世 (英格兰)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%86%E5%95%A6A%E6%A2%A6</t>
-  </si>
-  <si>
-    <t>哆啦A梦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E8%B1%A1%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>氣象學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E6%9A%B4</t>
-  </si>
-  <si>
-    <t>風暴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E7%AF%80%E7%9B%AE</t>
-  </si>
-  <si>
-    <t>電視節目</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AA%92%E9%AB%94</t>
-  </si>
-  <si>
-    <t>傳播媒體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%B6%AD%E5%9F%BA</t>
-  </si>
-  <si>
-    <t>元維基</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
-  </si>
-  <si>
-    <t>臺灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E4%B8%9C%E7%9C%81</t>
-  </si>
-  <si>
-    <t>广东省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%B8%AD%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>华中地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/User:Shizhao</t>
-  </si>
-  <si>
-    <t>User-Shizhao</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B5%AA%E5%BE%AE%E5%8D%9A</t>
-  </si>
-  <si>
-    <t>新浪微博</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%86%E7%93%A3</t>
-  </si>
-  <si>
-    <t>豆瓣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BA%BA%E7%BD%91</t>
-  </si>
-  <si>
-    <t>人人网</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E5%A3%B3%E7%BD%91</t>
-  </si>
-  <si>
-    <t>果壳网</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Yahoo!%E7%9F%A5%E8%AD%98%2B</t>
-  </si>
-  <si>
-    <t>Yahoo!知識+</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>歷史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%AB%E7%95%AB</t>
-  </si>
-  <si>
-    <t>漫畫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%95%AB</t>
-  </si>
-  <si>
-    <t>動畫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%81%8A%E6%88%B2</t>
-  </si>
-  <si>
-    <t>電子遊戲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>次文化</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%8C%BA</t>
@@ -857,9 +848,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
   </si>
   <si>
@@ -881,19 +869,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%B1%E7%91%9C%E7%9C%9F</t>
   </si>
   <si>
-    <t>許瑜真</t>
+    <t>许瑜真</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E6%98%AD</t>
   </si>
   <si>
-    <t>時昭</t>
+    <t>时昭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%A4%A7%E5%AD%A6</t>
@@ -917,25 +905,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E6%81%AD%E8%95%99</t>
   </si>
   <si>
-    <t>陸恭蕙</t>
+    <t>陆恭蕙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%BB%B2%E5%81%95</t>
   </si>
   <si>
-    <t>單仲偕</t>
+    <t>单仲偕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%B8%AD%E6%96%87%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>香港中文大學</t>
+    <t>香港中文大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E6%97%85%E9%81%8A%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>澳門旅遊學院</t>
+    <t>澳门旅游学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Gmail</t>
@@ -953,13 +941,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對維基百科的批評</t>
+    <t>对维基百科的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E8%B8%A2%E8%B8%A2</t>
@@ -983,9 +971,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Kilobyte</t>
   </si>
   <si>
@@ -1007,19 +992,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學</t>
+    <t>数学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學</t>
+    <t>医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E4%BA%BA</t>
   </si>
   <si>
-    <t>藝人</t>
+    <t>艺人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E5%8A%A8%E5%91%98</t>
@@ -1049,25 +1034,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%9C%8D</t>
   </si>
   <si>
-    <t>三圍</t>
+    <t>三围</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E8%BC%AF</t>
   </si>
   <si>
-    <t>專輯</t>
+    <t>专辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E6%9B%B2</t>
   </si>
   <si>
-    <t>單曲</t>
+    <t>单曲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E4%BA%8B</t>
   </si>
   <si>
-    <t>敘事</t>
+    <t>叙事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2</t>
@@ -1079,19 +1064,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%BB%BA%E6%B0%91_(%E6%A3%92%E7%90%83%E9%81%B8%E6%89%8B)</t>
   </si>
   <si>
-    <t>王建民 (棒球選手)</t>
+    <t>王建民 (棒球选手)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AC%A5%E7%89%9B%EF%BC%8C%E8%A6%81%E4%B8%8D%E8%A6%81</t>
   </si>
   <si>
-    <t>鬥牛，要不要</t>
+    <t>斗牛，要不要</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>星際大戰</t>
+    <t>星际大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%85%88%E9%A9%B1%E8%AE%BA%E5%9D%9B%E6%8A%A5</t>
@@ -1103,19 +1088,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%BE%A4%E6%9D%B1</t>
   </si>
   <si>
-    <t>毛澤東</t>
+    <t>毛泽东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%88%91%E5%AF%A9%E6%9F%A5</t>
   </si>
   <si>
-    <t>自我審查</t>
+    <t>自我审查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>中華民國總統</t>
+    <t>中华民国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E7%A7%80%E6%9F%B1</t>
@@ -1127,67 +1112,61 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E7%B6%A0</t>
   </si>
   <si>
-    <t>泛綠</t>
+    <t>泛绿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%BB%8D</t>
   </si>
   <si>
-    <t>網軍</t>
+    <t>网军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%98%8B%E6%9E%9C%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>臺灣蘋果日報</t>
+    <t>台湾苹果日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%B4%87%E6%95%AC</t>
   </si>
   <si>
-    <t>歐崇敬</t>
+    <t>欧崇敬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E8%87%BA%E7%81%A3%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>國立臺灣大學</t>
+    <t>国立台湾大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%B1%E7%9F%B3</t>
   </si>
   <si>
-    <t>許石</t>
+    <t>许石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>中華民國維基媒體協會</t>
+    <t>中华民国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>臺北</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%9C%8B%E9%9A%9B%E5%B9%B4%E6%9C%83</t>
   </si>
   <si>
-    <t>維基國際年會</t>
+    <t>维基国际年会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>大學</t>
+    <t>大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%8E%88</t>
@@ -1199,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%88%E6%AC%8A</t>
   </si>
   <si>
-    <t>版權</t>
+    <t>版权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%BA%A6%E5%85%AC%E5%8F%B8</t>
@@ -1319,7 +1298,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Wikipedia_editions</t>
@@ -1331,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>英語維基百科</t>
+    <t>英语维基百科</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/</t>
@@ -1343,7 +1322,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BF%E9%9C%A7%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>宿霧語維基百科</t>
+    <t>宿雾语维基百科</t>
   </si>
   <si>
     <t>https://ceb.wikipedia.org/wiki/</t>
@@ -1367,7 +1346,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>法語維基百科</t>
+    <t>法语维基百科</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/</t>
@@ -1379,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>荷蘭語維基百科</t>
+    <t>荷兰语维基百科</t>
   </si>
   <si>
     <t>https://nl.wikipedia.org/wiki/</t>
@@ -1409,7 +1388,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%91%9E%E7%93%A6%E7%91%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>瓦瑞瓦瑞語維基百科</t>
+    <t>瓦瑞瓦瑞语维基百科</t>
   </si>
   <si>
     <t>https://war.wikipedia.org/wiki/</t>
@@ -1421,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>波蘭語維基百科</t>
+    <t>波兰语维基百科</t>
   </si>
   <si>
     <t>https://pl.wikipedia.org/wiki/</t>
@@ -1457,7 +1436,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>烏克蘭語維基百科</t>
+    <t>乌克兰语维基百科</t>
   </si>
   <si>
     <t>https://uk.wikipedia.org/wiki/</t>
@@ -1469,7 +1448,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>波斯語維基百科</t>
+    <t>波斯语维基百科</t>
   </si>
   <si>
     <t>https://fa.wikipedia.org/wiki/</t>
@@ -1481,7 +1460,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>加泰羅尼亞語維基百科</t>
+    <t>加泰罗尼亚语维基百科</t>
   </si>
   <si>
     <t>https://ca.wikipedia.org/wiki/</t>
@@ -1499,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>挪威語維基百科</t>
+    <t>挪威语维基百科</t>
   </si>
   <si>
     <t>https://no.wikipedia.org/wiki/</t>
@@ -1511,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E-%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塞爾維亞-克羅埃西亞語維基百科</t>
+    <t>塞尔维亚-克罗埃西亚语维基百科</t>
   </si>
   <si>
     <t>https://sh.wikipedia.org/wiki/</t>
@@ -1535,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>匈牙利語維基百科</t>
+    <t>匈牙利语维基百科</t>
   </si>
   <si>
     <t>https://hu.wikipedia.org/wiki/</t>
@@ -1547,7 +1526,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>印尼語維基百科</t>
+    <t>印尼语维基百科</t>
   </si>
   <si>
     <t>https://id.wikipedia.org/wiki/</t>
@@ -1559,7 +1538,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>韓語維基百科</t>
+    <t>韩语维基百科</t>
   </si>
   <si>
     <t>https://ko.wikipedia.org/wiki/</t>
@@ -1571,7 +1550,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>捷克語維基百科</t>
+    <t>捷克语维基百科</t>
   </si>
   <si>
     <t>https://cs.wikipedia.org/wiki/</t>
@@ -1595,7 +1574,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塞爾維亞語維基百科</t>
+    <t>塞尔维亚语维基百科</t>
   </si>
   <si>
     <t>https://sr.wikipedia.org/wiki/</t>
@@ -1607,7 +1586,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>馬來語維基百科</t>
+    <t>马来语维基百科</t>
   </si>
   <si>
     <t>https://ms.wikipedia.org/wiki/</t>
@@ -1619,7 +1598,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>土耳其語維基百科</t>
+    <t>土耳其语维基百科</t>
   </si>
   <si>
     <t>https://tr.wikipedia.org/wiki/</t>
@@ -1631,7 +1610,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>巴斯克語維基百科</t>
+    <t>巴斯克语维基百科</t>
   </si>
   <si>
     <t>https://eu.wikipedia.org/wiki/</t>
@@ -1643,7 +1622,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>世界語維基百科</t>
+    <t>世界语维基百科</t>
   </si>
   <si>
     <t>https://eo.wikipedia.org/wiki/</t>
@@ -1655,7 +1634,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>保加利亞語維基百科</t>
+    <t>保加利亚语维基百科</t>
   </si>
   <si>
     <t>https://bg.wikipedia.org/wiki/</t>
@@ -1667,7 +1646,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>亞美尼亞語維基百科</t>
+    <t>亚美尼亚语维基百科</t>
   </si>
   <si>
     <t>https://hy.wikipedia.org/wiki/</t>
@@ -1679,7 +1658,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>丹麥語維基百科</t>
+    <t>丹麦语维基百科</t>
   </si>
   <si>
     <t>https://da.wikipedia.org/wiki/</t>
@@ -1691,7 +1670,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>閩南語維基百科</t>
+    <t>闽南语维基百科</t>
   </si>
   <si>
     <t>https://zh-min-nan.wikipedia.org/wiki/</t>
@@ -1703,7 +1682,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>斯洛伐克語維基百科</t>
+    <t>斯洛伐克语维基百科</t>
   </si>
   <si>
     <t>https://sk.wikipedia.org/wiki/</t>
@@ -1733,7 +1712,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E4%BE%86%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>希伯來語維基百科</t>
+    <t>希伯来语维基百科</t>
   </si>
   <si>
     <t>https://he.wikipedia.org/wiki/</t>
@@ -1745,7 +1724,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>立陶宛語維基百科</t>
+    <t>立陶宛语维基百科</t>
   </si>
   <si>
     <t>https://lt.wikipedia.org/wiki/</t>
@@ -1757,7 +1736,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>克羅埃西亞語維基百科</t>
+    <t>克罗埃西亚语维基百科</t>
   </si>
   <si>
     <t>https://hr.wikipedia.org/wiki/</t>
@@ -1769,7 +1748,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>愛沙尼亞語維基百科</t>
+    <t>爱沙尼亚语维基百科</t>
   </si>
   <si>
     <t>https://et.wikipedia.org/wiki/</t>
@@ -1793,7 +1772,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>斯洛文尼亞語維基百科</t>
+    <t>斯洛文尼亚语维基百科</t>
   </si>
   <si>
     <t>https://sl.wikipedia.org/wiki/</t>
@@ -1805,7 +1784,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>白俄羅斯語維基百科</t>
+    <t>白俄罗斯语维基百科</t>
   </si>
   <si>
     <t>https://be.wikipedia.org/wiki/</t>
@@ -1823,7 +1802,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>希臘語維基百科</t>
+    <t>希腊语维基百科</t>
   </si>
   <si>
     <t>https://el.wikipedia.org/wiki/</t>
@@ -1835,7 +1814,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%8C%AA%E5%A8%81%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>新挪威語維基百科</t>
+    <t>新挪威语维基百科</t>
   </si>
   <si>
     <t>https://nn.wikipedia.org/wiki/</t>
@@ -1859,7 +1838,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>阿塞拜疆語維基百科</t>
+    <t>阿塞拜疆语维基百科</t>
   </si>
   <si>
     <t>https://az.wikipedia.org/wiki/</t>
@@ -1871,7 +1850,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>烏茲別克語維基百科</t>
+    <t>乌兹别克语维基百科</t>
   </si>
   <si>
     <t>https://uz.wikipedia.org/wiki/</t>
@@ -1883,7 +1862,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>拉丁語維基百科</t>
+    <t>拉丁语维基百科</t>
   </si>
   <si>
     <t>https://la.wikipedia.org/wiki/</t>
@@ -1907,7 +1886,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>印地語維基百科</t>
+    <t>印地语维基百科</t>
   </si>
   <si>
     <t>https://hi.wikipedia.org/wiki/</t>
@@ -1919,7 +1898,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>泰語維基百科</t>
+    <t>泰语维基百科</t>
   </si>
   <si>
     <t>https://th.wikipedia.org/wiki/</t>
@@ -1943,7 +1922,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E7%B1%B3%E7%88%BE%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>泰米爾語維基百科</t>
+    <t>泰米尔语维基百科</t>
   </si>
   <si>
     <t>https://ta.wikipedia.org/wiki/</t>
@@ -1961,7 +1940,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>馬其頓語維基百科</t>
+    <t>马其顿语维基百科</t>
   </si>
   <si>
     <t>https://mk.wikipedia.org/wiki/</t>
@@ -2015,7 +1994,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8B%92%E6%9B%BC%E5%B0%BC%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>阿勒曼尼語維基百科</t>
+    <t>阿勒曼尼语维基百科</t>
   </si>
   <si>
     <t>https://als.wikipedia.org/wiki/</t>
@@ -2069,7 +2048,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>孟加拉語維基百科</t>
+    <t>孟加拉语维基百科</t>
   </si>
   <si>
     <t>https://bn.wikipedia.org/wiki/</t>
@@ -2093,7 +2072,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>波斯尼亞語維基百科</t>
+    <t>波斯尼亚语维基百科</t>
   </si>
   <si>
     <t>https://bs.wikipedia.org/wiki/</t>
@@ -2165,7 +2144,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A4%9A%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>伊多語維基百科</t>
+    <t>伊多语维基百科</t>
   </si>
   <si>
     <t>https://io.wikipedia.org/wiki/</t>
@@ -2177,7 +2156,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>冰島語維基百科</t>
+    <t>冰岛语维基百科</t>
   </si>
   <si>
     <t>https://is.wikipedia.org/wiki/</t>
@@ -2213,7 +2192,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>盧森堡語維基百科</t>
+    <t>卢森堡语维基百科</t>
   </si>
   <si>
     <t>https://lb.wikipedia.org/wiki/</t>
@@ -2321,7 +2300,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>阿爾巴尼亞語維基百科</t>
+    <t>阿尔巴尼亚语维基百科</t>
   </si>
   <si>
     <t>https://sq.wikipedia.org/wiki/</t>
@@ -2339,7 +2318,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B8%8C%E9%87%8C%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>斯瓦希里語維基百科</t>
+    <t>斯瓦希里语维基百科</t>
   </si>
   <si>
     <t>https://sw.wikipedia.org/wiki/</t>
@@ -2351,7 +2330,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塔吉克語維基百科</t>
+    <t>塔吉克语维基百科</t>
   </si>
   <si>
     <t>https://tg.wikipedia.org/wiki/</t>
@@ -2363,7 +2342,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A1%94%E7%88%BE%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塔塔爾語維基百科</t>
+    <t>塔塔尔语维基百科</t>
   </si>
   <si>
     <t>https://tt.wikipedia.org/wiki/</t>
@@ -2387,7 +2366,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E6%96%87%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>粵文維基百科</t>
+    <t>粤文维基百科</t>
   </si>
   <si>
     <t>https://zh-yue.wikipedia.org/wiki/</t>
@@ -2465,7 +2444,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>中華百科全書</t>
+    <t>中华百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MBA%E6%99%BA%E5%BA%93%E7%99%BE%E7%A7%91</t>
@@ -2474,12 +2453,6 @@
     <t>MBA智库百科</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>中文維基百科</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/360%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
@@ -2495,7 +2468,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B6%B2%E7%B5%A1%E5%A4%A7%E5%85%B8</t>
   </si>
   <si>
-    <t>香港網絡大典</t>
+    <t>香港网络大典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%85%B8</t>
@@ -2507,7 +2480,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%AE%A2%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>維客中國</t>
+    <t>维客中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%BA%93</t>
@@ -2519,7 +2492,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E5%A4%A9%E6%9B%B8</t>
   </si>
   <si>
-    <t>網絡天書</t>
+    <t>网络天书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AcFun</t>
@@ -2531,7 +2504,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%A4%A7%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>台灣大百科全書</t>
+    <t>台湾大百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
@@ -2544,6 +2517,12 @@
   </si>
   <si>
     <t>Knol</t>
+  </si>
+  <si>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2892,7 +2871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I436"/>
+  <dimension ref="A1:I437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3178,7 +3157,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -3903,7 +3882,7 @@
         <v>68</v>
       </c>
       <c r="G35" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -4451,10 +4430,10 @@
         <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="G54" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -4477,10 +4456,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4506,10 +4485,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4535,10 +4514,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4564,10 +4543,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4593,10 +4572,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4622,10 +4601,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4651,10 +4630,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -4680,10 +4659,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4709,10 +4688,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -4738,10 +4717,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>11</v>
@@ -4767,10 +4746,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>27</v>
@@ -4796,10 +4775,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>9</v>
@@ -4825,10 +4804,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>8</v>
@@ -4854,10 +4833,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>5</v>
@@ -4883,10 +4862,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>48</v>
@@ -4912,10 +4891,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -4941,10 +4920,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -4970,10 +4949,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4999,10 +4978,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5028,10 +5007,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -5057,10 +5036,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>4</v>
@@ -5086,10 +5065,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -5115,10 +5094,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5144,10 +5123,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5173,10 +5152,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -5202,10 +5181,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5231,10 +5210,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5260,10 +5239,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5289,10 +5268,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>5</v>
@@ -5318,10 +5297,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>6</v>
@@ -5347,10 +5326,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -5376,10 +5355,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -5405,10 +5384,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -5434,10 +5413,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -5463,10 +5442,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5492,10 +5471,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -5521,10 +5500,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5550,10 +5529,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5579,10 +5558,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>6</v>
@@ -5608,10 +5587,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5637,10 +5616,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5666,10 +5645,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -5695,10 +5674,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5724,10 +5703,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>10</v>
@@ -5753,10 +5732,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5782,10 +5761,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5811,10 +5790,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5840,10 +5819,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5869,10 +5848,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5898,10 +5877,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5927,10 +5906,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5956,10 +5935,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5985,10 +5964,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -6014,10 +5993,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -6043,10 +6022,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6072,10 +6051,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -6101,10 +6080,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -6130,10 +6109,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -6159,10 +6138,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6188,10 +6167,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6217,10 +6196,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="G115" t="n">
         <v>9</v>
@@ -6246,10 +6225,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6275,10 +6254,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6304,10 +6283,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -6333,10 +6312,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -6362,10 +6341,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -6391,10 +6370,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6420,10 +6399,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6449,10 +6428,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -6478,10 +6457,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="G124" t="n">
         <v>31</v>
@@ -6507,10 +6486,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6536,10 +6515,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6565,10 +6544,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>7</v>
@@ -6594,10 +6573,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6623,10 +6602,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6652,10 +6631,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6681,10 +6660,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6710,10 +6689,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6739,10 +6718,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6768,10 +6747,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>9</v>
@@ -6797,10 +6776,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -6826,10 +6805,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>7</v>
@@ -6855,10 +6834,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6884,10 +6863,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6913,10 +6892,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6942,10 +6921,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6971,7 +6950,7 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>1</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
         <v>0</v>
@@ -7000,10 +6979,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G142" t="n">
         <v>7</v>
@@ -7029,10 +7008,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
         <v>10</v>
@@ -7058,10 +7037,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>145</v>
       </c>
       <c r="G144" t="n">
         <v>6</v>
@@ -7087,10 +7066,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>6</v>
@@ -7116,10 +7095,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -7145,10 +7124,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -7174,10 +7153,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -7203,10 +7182,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7232,10 +7211,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7261,10 +7240,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7290,10 +7269,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -7319,10 +7298,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7348,10 +7327,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7377,10 +7356,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7406,10 +7385,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7435,10 +7414,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7464,10 +7443,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F158" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7493,10 +7472,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7522,10 +7501,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7551,10 +7530,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7580,10 +7559,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7609,10 +7588,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>192</v>
+      </c>
+      <c r="F163" t="s">
         <v>193</v>
-      </c>
-      <c r="F163" t="s">
-        <v>194</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -7638,10 +7617,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F164" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7667,10 +7646,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7696,10 +7675,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7725,10 +7704,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>5</v>
@@ -7754,10 +7733,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>161</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7783,10 +7762,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7812,10 +7791,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7841,10 +7820,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7870,10 +7849,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7899,10 +7878,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7928,10 +7907,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7957,10 +7936,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7986,10 +7965,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -8015,10 +7994,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G177" t="n">
         <v>4</v>
@@ -8044,10 +8023,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -8073,10 +8052,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8102,10 +8081,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8131,10 +8110,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8160,10 +8139,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8189,10 +8168,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G183" t="n">
         <v>4</v>
@@ -8218,10 +8197,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8247,10 +8226,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8276,10 +8255,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8305,10 +8284,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -8334,10 +8313,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8363,10 +8342,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>200</v>
+      </c>
+      <c r="F189" t="s">
         <v>201</v>
-      </c>
-      <c r="F189" t="s">
-        <v>202</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8392,10 +8371,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G190" t="n">
         <v>3</v>
@@ -8421,10 +8400,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8450,10 +8429,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -8479,10 +8458,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8508,10 +8487,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8537,10 +8516,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G195" t="n">
         <v>3</v>
@@ -8566,10 +8545,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G196" t="n">
         <v>3</v>
@@ -8595,10 +8574,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8624,10 +8603,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8653,10 +8632,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>125</v>
       </c>
       <c r="G199" t="n">
         <v>6</v>
@@ -8682,10 +8661,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8711,10 +8690,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>294</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -8740,10 +8719,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F202" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8769,10 +8748,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8798,10 +8777,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G204" t="n">
         <v>5</v>
@@ -8827,10 +8806,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8856,10 +8835,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8885,10 +8864,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8914,10 +8893,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8943,10 +8922,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F209" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8972,10 +8951,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9001,10 +8980,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9030,10 +9009,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G212" t="n">
         <v>3</v>
@@ -9059,10 +9038,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9088,10 +9067,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F214" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9117,10 +9096,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9146,10 +9125,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9175,10 +9154,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9204,10 +9183,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9233,10 +9212,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -9262,10 +9241,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9291,10 +9270,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9320,10 +9299,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F222" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G222" t="n">
         <v>5</v>
@@ -9378,10 +9357,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F224" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9407,10 +9386,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F225" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9436,10 +9415,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F226" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9465,10 +9444,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F227" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9494,10 +9473,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F228" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9523,10 +9502,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F229" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G229" t="n">
         <v>13</v>
@@ -9552,10 +9531,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F230" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G230" t="n">
         <v>6</v>
@@ -9581,10 +9560,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F231" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G231" t="n">
         <v>61</v>
@@ -9610,10 +9589,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F232" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9639,10 +9618,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F233" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9668,10 +9647,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9697,10 +9676,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G235" t="n">
         <v>24</v>
@@ -9726,10 +9705,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9755,10 +9734,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9784,10 +9763,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9813,10 +9792,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G239" t="n">
         <v>3</v>
@@ -9842,10 +9821,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F240" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G240" t="n">
         <v>22</v>
@@ -9871,13 +9850,13 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G241" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -9900,13 +9879,13 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G242" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -9929,10 +9908,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9958,10 +9937,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9987,10 +9966,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10016,10 +9995,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G246" t="n">
         <v>28</v>
@@ -10045,10 +10024,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -10074,13 +10053,13 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G248" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -10103,10 +10082,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10132,13 +10111,13 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G250" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -10161,10 +10140,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10190,10 +10169,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10219,10 +10198,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10248,10 +10227,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G254" t="n">
         <v>18</v>
@@ -10277,10 +10256,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10306,10 +10285,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G256" t="n">
         <v>11</v>
@@ -10335,13 +10314,13 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G257" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -10364,10 +10343,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10393,10 +10372,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G259" t="n">
         <v>15</v>
@@ -10422,10 +10401,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10451,10 +10430,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G261" t="n">
         <v>12</v>
@@ -10480,10 +10459,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10509,10 +10488,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G263" t="n">
         <v>10</v>
@@ -10538,10 +10517,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10567,10 +10546,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G265" t="n">
         <v>6</v>
@@ -10596,10 +10575,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10625,10 +10604,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G267" t="n">
         <v>7</v>
@@ -10654,10 +10633,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10683,10 +10662,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10712,10 +10691,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10741,10 +10720,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10770,10 +10749,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F272" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10799,13 +10778,13 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F273" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G273" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -10828,10 +10807,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10857,10 +10836,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G275" t="n">
         <v>3</v>
@@ -10886,10 +10865,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10915,10 +10894,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G277" t="n">
         <v>5</v>
@@ -10944,10 +10923,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F278" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10973,10 +10952,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G279" t="n">
         <v>36</v>
@@ -11002,10 +10981,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11031,10 +11010,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -11060,10 +11039,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11089,10 +11068,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -11118,10 +11097,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11147,10 +11126,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11176,10 +11155,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11205,10 +11184,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -11234,10 +11213,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11263,10 +11242,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11292,10 +11271,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G290" t="n">
         <v>3</v>
@@ -11321,10 +11300,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -11350,10 +11329,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11379,10 +11358,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F293" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G293" t="n">
         <v>8</v>
@@ -11408,10 +11387,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G294" t="n">
         <v>6</v>
@@ -11437,10 +11416,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F295" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11466,10 +11445,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11495,10 +11474,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11524,10 +11503,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G298" t="n">
         <v>10</v>
@@ -11553,10 +11532,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F299" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11582,10 +11561,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F300" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G300" t="n">
         <v>13</v>
@@ -11611,10 +11590,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11640,10 +11619,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11669,10 +11648,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11698,13 +11677,13 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G304" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -11727,10 +11706,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11756,10 +11735,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G306" t="n">
         <v>30</v>
@@ -11785,10 +11764,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11814,10 +11793,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11843,10 +11822,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11872,10 +11851,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G310" t="n">
         <v>9</v>
@@ -11901,10 +11880,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G311" t="n">
         <v>8</v>
@@ -11930,10 +11909,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11959,10 +11938,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G313" t="n">
         <v>12</v>
@@ -11988,10 +11967,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12017,10 +11996,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -12046,10 +12025,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12075,10 +12054,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F317" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12104,10 +12083,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F318" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12133,10 +12112,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12162,10 +12141,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F320" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12191,10 +12170,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12220,10 +12199,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F322" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12249,10 +12228,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F323" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G323" t="n">
         <v>42</v>
@@ -12278,10 +12257,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F324" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12307,10 +12286,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F325" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G325" t="n">
         <v>8</v>
@@ -12336,10 +12315,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F326" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12365,10 +12344,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F327" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G327" t="n">
         <v>28</v>
@@ -12394,10 +12373,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12423,13 +12402,13 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F329" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G329" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -12452,10 +12431,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F330" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12481,10 +12460,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F331" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12510,10 +12489,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F332" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12539,10 +12518,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F333" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G333" t="n">
         <v>27</v>
@@ -12568,10 +12547,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F334" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G334" t="n">
         <v>7</v>
@@ -12597,10 +12576,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F335" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12626,10 +12605,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F336" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12655,10 +12634,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F337" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12684,10 +12663,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F338" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G338" t="n">
         <v>8</v>
@@ -12713,10 +12692,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F339" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12742,10 +12721,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F340" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12771,13 +12750,13 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F341" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="G341" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -12800,10 +12779,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F342" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="G342" t="n">
         <v>7</v>
@@ -12829,10 +12808,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F343" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="G343" t="n">
         <v>4</v>
@@ -12858,10 +12837,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F344" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12887,10 +12866,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="F345" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="G345" t="n">
         <v>13</v>
@@ -12916,10 +12895,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F346" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="G346" t="n">
         <v>25</v>
@@ -12945,10 +12924,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F347" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="G347" t="n">
         <v>45</v>
@@ -12974,10 +12953,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F348" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13003,10 +12982,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F349" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13032,10 +13011,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F350" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="G350" t="n">
         <v>22</v>
@@ -13061,10 +13040,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F351" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13090,10 +13069,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F352" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13119,10 +13098,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F353" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13148,10 +13127,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F354" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13177,10 +13156,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F355" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -13206,10 +13185,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F356" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13235,10 +13214,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="F357" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13264,10 +13243,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F358" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13293,10 +13272,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F359" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G359" t="n">
         <v>4</v>
@@ -13322,10 +13301,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F360" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -13351,10 +13330,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="F361" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13380,10 +13359,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="F362" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13409,10 +13388,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F363" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G363" t="n">
         <v>5</v>
@@ -13438,10 +13417,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F364" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13467,10 +13446,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F365" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13496,10 +13475,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F366" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G366" t="n">
         <v>21</v>
@@ -13525,10 +13504,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F367" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13554,10 +13533,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F368" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G368" t="n">
         <v>13</v>
@@ -13583,13 +13562,13 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F369" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G369" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -13612,10 +13591,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F370" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13641,13 +13620,13 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F371" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G371" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -13670,10 +13649,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F372" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13699,10 +13678,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F373" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G373" t="n">
         <v>28</v>
@@ -13728,10 +13707,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F374" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13757,10 +13736,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F375" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13786,10 +13765,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F376" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13815,13 +13794,13 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F377" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -13844,10 +13823,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F378" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13873,10 +13852,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="F379" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="G379" t="n">
         <v>5</v>
@@ -13902,10 +13881,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="F380" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13931,10 +13910,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="F381" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13960,10 +13939,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="F382" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13989,10 +13968,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F383" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -14018,10 +13997,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="F384" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14047,10 +14026,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="F385" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="G385" t="n">
         <v>3</v>
@@ -14076,10 +14055,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="F386" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14105,10 +14084,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="F387" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="G387" t="n">
         <v>3</v>
@@ -14134,10 +14113,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F388" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14163,10 +14142,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="F389" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14192,10 +14171,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="F390" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="G390" t="n">
         <v>4</v>
@@ -14221,10 +14200,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="F391" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="G391" t="n">
         <v>18</v>
@@ -14250,10 +14229,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="F392" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14279,10 +14258,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="F393" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="G393" t="n">
         <v>6</v>
@@ -14308,10 +14287,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F394" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14337,10 +14316,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="F395" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -14366,10 +14345,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="F396" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14395,10 +14374,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="F397" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="G397" t="n">
         <v>2</v>
@@ -14424,10 +14403,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F398" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="G398" t="n">
         <v>11</v>
@@ -14453,10 +14432,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="F399" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14482,10 +14461,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="F400" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="G400" t="n">
         <v>4</v>
@@ -14511,10 +14490,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="F401" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14540,10 +14519,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="F402" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14569,10 +14548,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F403" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14598,10 +14577,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="F404" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="G404" t="n">
         <v>6</v>
@@ -14627,10 +14606,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="F405" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="G405" t="n">
         <v>7</v>
@@ -14656,10 +14635,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="F406" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14685,10 +14664,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F407" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="G407" t="n">
         <v>3</v>
@@ -14714,10 +14693,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F408" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="G408" t="n">
         <v>2</v>
@@ -14743,10 +14722,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F409" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14772,10 +14751,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F410" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14801,10 +14780,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F411" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14830,10 +14809,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F412" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14859,10 +14838,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F413" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14888,10 +14867,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F414" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14917,10 +14896,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="F415" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14946,10 +14925,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="F416" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="G416" t="n">
         <v>4</v>
@@ -14975,10 +14954,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F417" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="G417" t="n">
         <v>13</v>
@@ -15004,10 +14983,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="F418" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15033,10 +15012,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="F419" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15062,10 +15041,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="F420" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -15120,10 +15099,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="F422" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15149,10 +15128,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="F423" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15178,10 +15157,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="F424" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15207,13 +15186,13 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="F425" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="G425" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -15236,13 +15215,13 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="F426" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="G426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -15265,10 +15244,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F427" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15294,10 +15273,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F428" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15323,10 +15302,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="F429" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15352,10 +15331,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="F430" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15381,10 +15360,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="F431" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15410,10 +15389,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="F432" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15439,10 +15418,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F433" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15468,10 +15447,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="F434" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15497,10 +15476,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="F435" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15526,18 +15505,47 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>841</v>
+        <v>271</v>
       </c>
       <c r="F436" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="G436" t="n">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="H436" t="s">
         <v>4</v>
       </c>
       <c r="I436" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>0</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1</v>
+      </c>
+      <c r="D437" t="n">
+        <v>436</v>
+      </c>
+      <c r="E437" t="s">
+        <v>271</v>
+      </c>
+      <c r="F437" t="s">
+        <v>835</v>
+      </c>
+      <c r="G437" t="n">
+        <v>2</v>
+      </c>
+      <c r="H437" t="s">
+        <v>4</v>
+      </c>
+      <c r="I437" t="n">
         <v>3</v>
       </c>
     </row>
